--- a/Punto1Datos.xlsx
+++ b/Punto1Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Universidad de los Andes\College\8. Eighth Semester Stuff\Opti Avanzada IIND4101\Tarea1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Universidad de los Andes\College\8. Eighth Semester Stuff\Opti Avanzada IIND4101\Tarea1-IIND4101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75928EF4-AD64-4CBC-8474-8FFE24A48A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23636AC6-E0F2-4AF6-A80E-F576E936F762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{ACAA2473-8227-4752-9AD6-AA96FDE0AF1C}"/>
+    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ACAA2473-8227-4752-9AD6-AA96FDE0AF1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Beneficios" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Ciencias</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Economía</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -569,10 +566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD713244-99C9-4805-89D3-3E4BC98F6E74}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,8 +601,8 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2.8</v>
@@ -627,11 +624,11 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="B3">
+        <v>2.8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -650,14 +647,14 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+      <c r="B4">
+        <v>1.7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>2.2999999999999998</v>
@@ -673,17 +670,17 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0.8</v>
@@ -696,23 +693,46 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
+      <c r="B6">
+        <v>0.9</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
+      </c>
+      <c r="D6">
+        <v>2.5</v>
+      </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C7">
+        <v>3.1</v>
+      </c>
+      <c r="D7">
+        <v>1.7</v>
+      </c>
+      <c r="E7">
+        <v>0.9</v>
+      </c>
+      <c r="F7">
+        <v>1.5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -724,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0C2D40-D4A2-4021-9899-DC0579ECD09B}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,7 +785,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
@@ -782,11 +802,11 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="C4">
+        <v>11</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -799,14 +819,14 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
       </c>
       <c r="E5">
         <v>3</v>

--- a/Punto1Datos.xlsx
+++ b/Punto1Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Universidad de los Andes\College\8. Eighth Semester Stuff\Opti Avanzada IIND4101\Tarea1-IIND4101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/w_bayona_uniandes_edu_co/Documents/College/8. Eighth Semester Stuff/Opti Avanzada IIND4101/Tarea1-IIND4101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23636AC6-E0F2-4AF6-A80E-F576E936F762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{23636AC6-E0F2-4AF6-A80E-F576E936F762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BF545FD-518E-485D-8AC6-77543F2AF241}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ACAA2473-8227-4752-9AD6-AA96FDE0AF1C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{ACAA2473-8227-4752-9AD6-AA96FDE0AF1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Beneficios" sheetId="1" r:id="rId1"/>
@@ -103,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,125 +440,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDE67E2-0AE8-4E7C-9873-C52B6C1B0CB2}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>38</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>35</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>36</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>39</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>23</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>24</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>37</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>27</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>27</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>28</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -568,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD713244-99C9-4805-89D3-3E4BC98F6E74}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -648,10 +715,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -671,13 +738,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -694,16 +761,16 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -717,19 +784,19 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -744,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0C2D40-D4A2-4021-9899-DC0579ECD09B}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -803,10 +870,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -820,13 +887,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>3</v>
